--- a/6Timetable/data/20210929/●３会場予約枠.xlsx
+++ b/6Timetable/data/20210929/●３会場予約枠.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>デフォルト終了時刻</t>
     <rPh sb="5" eb="7">
@@ -222,8 +222,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>10/9～10/31_東生涯学習センター(モデルナ)</t>
+  </si>
+  <si>
+    <t>10/9～10/31_東生涯学習センター(モデルナ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/9～10/31_西南生涯学習センター(モデルナ)</t>
+  </si>
+  <si>
+    <t>10/9～10/31_西南生涯学習センター(モデルナ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>モデルナ10</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -262,79 +276,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>/31_総合保健福祉センター</t>
+      <t>/31_総合保健福祉センター(モデルナ)</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデルナ10/9～10/31_東生涯学習センター</t>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_東生涯学習センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_西南生涯学習センター</t>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_西南生涯学習センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_総合保健福祉センター</t>
-  </si>
-  <si>
-    <r>
-      <t>モデルナ10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/31_総合保健福祉センター</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_東生涯学習センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルナ10/9～10/31_西南生涯学習センター</t>
-    <phoneticPr fontId="2"/>
+    <t>10/9～10/31_総合保健福祉センター(モデルナ)</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1044,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1093,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1176,7 +1123,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1206,7 +1153,7 @@
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1245,9 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1371,7 +1318,7 @@
       </c>
       <c r="P2" s="36" t="str">
         <f t="shared" ref="P2:P48" si="0">C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-09</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-09</v>
       </c>
       <c r="Q2" s="9" t="str">
         <f t="shared" ref="Q2:Q48" si="1">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
@@ -1434,7 +1381,7 @@
       </c>
       <c r="P3" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-16</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-16</v>
       </c>
       <c r="Q3" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1497,7 +1444,7 @@
       </c>
       <c r="P4" s="36" t="str">
         <f t="shared" ref="P4" si="5">C4&amp;"/"&amp;TEXT(E4,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-23</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-23</v>
       </c>
       <c r="Q4" s="9" t="str">
         <f t="shared" ref="Q4" si="6">TEXT(E4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F4,"hh:MM")&amp;":00.000+9"</f>
@@ -1560,7 +1507,7 @@
       </c>
       <c r="P5" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-30</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-30</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1623,7 +1570,7 @@
       </c>
       <c r="P6" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-06</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-06</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1686,7 +1633,7 @@
       </c>
       <c r="P7" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-13</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-13</v>
       </c>
       <c r="Q7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1749,7 +1696,7 @@
       </c>
       <c r="P8" s="36" t="str">
         <f t="shared" ref="P8" si="10">C8&amp;"/"&amp;TEXT(E8,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-20</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-20</v>
       </c>
       <c r="Q8" s="9" t="str">
         <f t="shared" ref="Q8" si="11">TEXT(E8,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F8,"hh:MM")&amp;":00.000+9"</f>
@@ -1812,7 +1759,7 @@
       </c>
       <c r="P9" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-27</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-27</v>
       </c>
       <c r="Q9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1879,7 +1826,7 @@
       </c>
       <c r="P10" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-10</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-10</v>
       </c>
       <c r="Q10" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1946,7 +1893,7 @@
       </c>
       <c r="P11" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-17</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-17</v>
       </c>
       <c r="Q11" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2013,7 +1960,7 @@
       </c>
       <c r="P12" s="36" t="str">
         <f t="shared" ref="P12" si="15">C12&amp;"/"&amp;TEXT(E12,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-24</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-24</v>
       </c>
       <c r="Q12" s="9" t="str">
         <f t="shared" ref="Q12" si="16">TEXT(E12,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F12,"hh:MM")&amp;":00.000+9"</f>
@@ -2080,7 +2027,7 @@
       </c>
       <c r="P13" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-10-31</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-31</v>
       </c>
       <c r="Q13" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2147,7 +2094,7 @@
       </c>
       <c r="P14" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-07</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-07</v>
       </c>
       <c r="Q14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2214,7 +2161,7 @@
       </c>
       <c r="P15" s="36" t="str">
         <f t="shared" ref="P15" si="20">C15&amp;"/"&amp;TEXT(E15,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-14</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-14</v>
       </c>
       <c r="Q15" s="9" t="str">
         <f t="shared" ref="Q15" si="21">TEXT(E15,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F15,"hh:MM")&amp;":00.000+9"</f>
@@ -2281,7 +2228,7 @@
       </c>
       <c r="P16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-21</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-21</v>
       </c>
       <c r="Q16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2348,7 +2295,7 @@
       </c>
       <c r="P17" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-11-28</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-11-28</v>
       </c>
       <c r="Q17" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2375,7 +2322,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="24" t="b">
         <v>1</v>
@@ -2411,7 +2358,7 @@
       </c>
       <c r="P18" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-09</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-09</v>
       </c>
       <c r="Q18" s="38" t="str">
         <f t="shared" si="1"/>
@@ -2438,7 +2385,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="24" t="b">
         <v>1</v>
@@ -2474,7 +2421,7 @@
       </c>
       <c r="P19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-16</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-16</v>
       </c>
       <c r="Q19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2501,7 +2448,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="24" t="b">
         <v>1</v>
@@ -2537,7 +2484,7 @@
       </c>
       <c r="P20" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-23</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-23</v>
       </c>
       <c r="Q20" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2564,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="b">
         <v>1</v>
@@ -2600,7 +2547,7 @@
       </c>
       <c r="P21" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-30</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-30</v>
       </c>
       <c r="Q21" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2627,7 +2574,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="25" t="b">
         <v>1</v>
@@ -2663,7 +2610,7 @@
       </c>
       <c r="P22" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-06</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-06</v>
       </c>
       <c r="Q22" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2690,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="25" t="b">
         <v>1</v>
@@ -2726,7 +2673,7 @@
       </c>
       <c r="P23" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-13</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-13</v>
       </c>
       <c r="Q23" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2753,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="25" t="b">
         <v>1</v>
@@ -2789,7 +2736,7 @@
       </c>
       <c r="P24" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-20</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-20</v>
       </c>
       <c r="Q24" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2816,7 +2763,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="25" t="b">
         <v>1</v>
@@ -2852,7 +2799,7 @@
       </c>
       <c r="P25" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-27</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-27</v>
       </c>
       <c r="Q25" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2879,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="26" t="b">
         <v>1</v>
@@ -2919,7 +2866,7 @@
       </c>
       <c r="P26" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-10</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-10</v>
       </c>
       <c r="Q26" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2946,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="26" t="b">
         <v>1</v>
@@ -2986,7 +2933,7 @@
       </c>
       <c r="P27" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-17</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-17</v>
       </c>
       <c r="Q27" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3013,7 +2960,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="26" t="b">
         <v>1</v>
@@ -3053,7 +3000,7 @@
       </c>
       <c r="P28" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-24</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-24</v>
       </c>
       <c r="Q28" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3080,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="26" t="b">
         <v>1</v>
@@ -3120,7 +3067,7 @@
       </c>
       <c r="P29" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-10-31</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-31</v>
       </c>
       <c r="Q29" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3147,7 +3094,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="27" t="b">
         <v>1</v>
@@ -3187,7 +3134,7 @@
       </c>
       <c r="P30" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-07</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-07</v>
       </c>
       <c r="Q30" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3214,7 +3161,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="27" t="b">
         <v>1</v>
@@ -3254,7 +3201,7 @@
       </c>
       <c r="P31" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-14</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-14</v>
       </c>
       <c r="Q31" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3281,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="27" t="b">
         <v>1</v>
@@ -3321,7 +3268,7 @@
       </c>
       <c r="P32" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-21</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-21</v>
       </c>
       <c r="Q32" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3348,7 +3295,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="28" t="b">
         <v>1</v>
@@ -3388,7 +3335,7 @@
       </c>
       <c r="P33" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-11-28</v>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-11-28</v>
       </c>
       <c r="Q33" s="39" t="str">
         <f t="shared" si="1"/>
@@ -3415,7 +3362,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="24" t="b">
         <v>1</v>
@@ -3451,7 +3398,7 @@
       </c>
       <c r="P34" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-09</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-09</v>
       </c>
       <c r="Q34" s="38" t="str">
         <f t="shared" si="1"/>
@@ -3478,7 +3425,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="24" t="b">
         <v>1</v>
@@ -3514,7 +3461,7 @@
       </c>
       <c r="P35" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-16</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-16</v>
       </c>
       <c r="Q35" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3541,7 +3488,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="24" t="b">
         <v>1</v>
@@ -3577,7 +3524,7 @@
       </c>
       <c r="P36" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-23</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-23</v>
       </c>
       <c r="Q36" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3604,7 +3551,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="24" t="b">
         <v>1</v>
@@ -3640,7 +3587,7 @@
       </c>
       <c r="P37" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-30</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-30</v>
       </c>
       <c r="Q37" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3667,7 +3614,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="25" t="b">
         <v>1</v>
@@ -3703,7 +3650,7 @@
       </c>
       <c r="P38" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-06</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-06</v>
       </c>
       <c r="Q38" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3730,7 +3677,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="25" t="b">
         <v>1</v>
@@ -3766,7 +3713,7 @@
       </c>
       <c r="P39" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-13</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-13</v>
       </c>
       <c r="Q39" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3793,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="25" t="b">
         <v>1</v>
@@ -3829,7 +3776,7 @@
       </c>
       <c r="P40" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-20</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-20</v>
       </c>
       <c r="Q40" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3856,7 +3803,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="25" t="b">
         <v>1</v>
@@ -3892,7 +3839,7 @@
       </c>
       <c r="P41" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-27</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-27</v>
       </c>
       <c r="Q41" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3919,7 +3866,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="26" t="b">
         <v>1</v>
@@ -3959,7 +3906,7 @@
       </c>
       <c r="P42" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-10</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-10</v>
       </c>
       <c r="Q42" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3986,7 +3933,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="26" t="b">
         <v>1</v>
@@ -4026,7 +3973,7 @@
       </c>
       <c r="P43" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-17</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-17</v>
       </c>
       <c r="Q43" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4053,7 +4000,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="26" t="b">
         <v>1</v>
@@ -4093,7 +4040,7 @@
       </c>
       <c r="P44" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-24</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-24</v>
       </c>
       <c r="Q44" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4120,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="26" t="b">
         <v>1</v>
@@ -4160,7 +4107,7 @@
       </c>
       <c r="P45" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-10-31</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-31</v>
       </c>
       <c r="Q45" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4187,7 +4134,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="27" t="b">
         <v>1</v>
@@ -4227,7 +4174,7 @@
       </c>
       <c r="P46" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-07</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-07</v>
       </c>
       <c r="Q46" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4254,7 +4201,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="27" t="b">
         <v>1</v>
@@ -4294,7 +4241,7 @@
       </c>
       <c r="P47" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-14</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-14</v>
       </c>
       <c r="Q47" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4321,7 +4268,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="27" t="b">
         <v>1</v>
@@ -4361,7 +4308,7 @@
       </c>
       <c r="P48" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-21</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-21</v>
       </c>
       <c r="Q48" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4388,7 +4335,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="28" t="b">
         <v>1</v>
@@ -4428,7 +4375,7 @@
       </c>
       <c r="P49" s="37" t="str">
         <f t="shared" ref="P49" si="25">C49&amp;"/"&amp;TEXT(E49,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-11-28</v>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-11-28</v>
       </c>
       <c r="Q49" s="39" t="str">
         <f t="shared" ref="Q49" si="26">TEXT(E49,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F49,"hh:MM")&amp;":00.000+9"</f>
@@ -4456,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4539,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="24">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="E2" s="29">
         <v>0.55555555555555558</v>
@@ -4579,37 +4526,37 @@
       </c>
       <c r="O2" s="36" t="str">
         <f>B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_総合保健福祉センター/2021-09-01</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-09-29</v>
       </c>
       <c r="P2" s="9" t="str">
         <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="Q2" s="9" t="str">
         <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <v>2021-09-29T13:30:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
         <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
         <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <v>2021-09-29T13:30:00.000+9</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>38</v>
+      <c r="B3" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="24">
-        <v>44440</v>
+        <v>44475</v>
       </c>
       <c r="E3" s="29">
         <v>0.55555555555555558</v>
@@ -4643,23 +4590,23 @@
       </c>
       <c r="O3" s="36" t="str">
         <f>B3&amp;"/"&amp;TEXT(D3,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_東生涯学習センター/2021-09-01</v>
+        <v>10/9～10/31_総合保健福祉センター(モデルナ)/2021-10-06</v>
       </c>
       <c r="P3" s="9" t="str">
         <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <v>2021-10-06T13:20:00.000+9</v>
       </c>
       <c r="Q3" s="9" t="str">
         <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <v>2021-10-06T13:30:00.000+9</v>
       </c>
       <c r="R3" s="9" t="str">
         <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <v>2021-10-06T13:20:00.000+9</v>
       </c>
       <c r="S3" s="9" t="str">
         <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <v>2021-10-06T13:30:00.000+9</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4667,13 +4614,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="24">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="E4" s="29">
         <v>0.55555555555555558</v>
@@ -4706,24 +4653,216 @@
         <v>3</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f>B4&amp;"/"&amp;TEXT(D4,"yyyy-mm-dd")</f>
-        <v>モデルナ10/9～10/31_西南生涯学習センター/2021-09-01</v>
+        <f t="shared" ref="O4:O5" si="0">B4&amp;"/"&amp;TEXT(D4,"yyyy-mm-dd")</f>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-09-29</v>
       </c>
       <c r="P4" s="9" t="str">
-        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <f t="shared" ref="P4:P5" si="1">TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="Q4" s="9" t="str">
-        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <f t="shared" ref="Q4:Q5" si="2">TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:30:00.000+9</v>
       </c>
       <c r="R4" s="9" t="str">
-        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:20:00.000+9</v>
+        <f t="shared" ref="R4:R5" si="3">TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="S4" s="9" t="str">
-        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-09-01T13:30:00.000+9</v>
+        <f t="shared" ref="S4:S5" si="4">TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>44475</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="I5" s="17">
+        <v>10</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>120</v>
+      </c>
+      <c r="M5" s="17">
+        <v>3</v>
+      </c>
+      <c r="N5" s="17">
+        <v>3</v>
+      </c>
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10/9～10/31_東生涯学習センター(モデルナ)/2021-10-06</v>
+      </c>
+      <c r="P5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-10-06T13:20:00.000+9</v>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-10-06T13:30:00.000+9</v>
+      </c>
+      <c r="R5" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-10-06T13:20:00.000+9</v>
+      </c>
+      <c r="S5" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-10-06T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>44468</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="I6" s="17">
+        <v>10</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>120</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3</v>
+      </c>
+      <c r="N6" s="17">
+        <v>3</v>
+      </c>
+      <c r="O6" s="36" t="str">
+        <f t="shared" ref="O6:O7" si="5">B6&amp;"/"&amp;TEXT(D6,"yyyy-mm-dd")</f>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-09-29</v>
+      </c>
+      <c r="P6" s="9" t="str">
+        <f t="shared" ref="P6:P7" si="6">TEXT(D6,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E6,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:20:00.000+9</v>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <f t="shared" ref="Q6:Q7" si="7">TEXT(D6,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F6,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:30:00.000+9</v>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f t="shared" ref="R6:R7" si="8">TEXT(D6,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G6,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:20:00.000+9</v>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f t="shared" ref="S6:S7" si="9">TEXT(D6,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H6,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-09-29T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>44475</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="I7" s="17">
+        <v>10</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>120</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="17">
+        <v>3</v>
+      </c>
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>10/9～10/31_西南生涯学習センター(モデルナ)/2021-10-06</v>
+      </c>
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>2021-10-06T13:20:00.000+9</v>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>2021-10-06T13:30:00.000+9</v>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>2021-10-06T13:20:00.000+9</v>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>2021-10-06T13:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
